--- a/Timekeeping/2024/09-24/ZHANG Y 09-24.xlsx
+++ b/Timekeeping/2024/09-24/ZHANG Y 09-24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Timekeeping\09-24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/095d5c38fd0987cc/RWA/1901/Eric's Billing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE74B54-DB6E-41D4-96CF-194C3AEB6898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{DDE74B54-DB6E-41D4-96CF-194C3AEB6898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1B5FDCF-1E29-4716-BD49-656C73649CF4}"/>
   <bookViews>
-    <workbookView xWindow="59310" yWindow="15120" windowWidth="18900" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="18700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,19 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AJ$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -262,64 +275,64 @@
     <t>1901</t>
   </si>
   <si>
+    <t>YunFan Zhang</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>FEA</t>
+  </si>
+  <si>
+    <t>Feasibility Studies</t>
+  </si>
+  <si>
+    <t>WD</t>
+  </si>
+  <si>
+    <t>Specifications</t>
+  </si>
+  <si>
+    <t>RZ</t>
+  </si>
+  <si>
+    <t>Rezoning</t>
+  </si>
+  <si>
+    <t>Tendering</t>
+  </si>
+  <si>
+    <t>Development permit drawings</t>
+  </si>
+  <si>
+    <t>Extra Services beyond contract - SEE EXTRA SERVICES FORM</t>
+  </si>
+  <si>
+    <t>Building permit drawings</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Maplewood</t>
+  </si>
+  <si>
+    <t>Two Waters Parcels 1&amp;2</t>
+  </si>
+  <si>
+    <t>WORKING FROM HOME</t>
+  </si>
+  <si>
+    <t>HAPPY HOUR</t>
+  </si>
+  <si>
+    <t>VV</t>
+  </si>
+  <si>
+    <t>September 2024</t>
+  </si>
+  <si>
     <t>DP</t>
-  </si>
-  <si>
-    <t>YunFan Zhang</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>FEA</t>
-  </si>
-  <si>
-    <t>Feasibility Studies</t>
-  </si>
-  <si>
-    <t>WD</t>
-  </si>
-  <si>
-    <t>Specifications</t>
-  </si>
-  <si>
-    <t>RZ</t>
-  </si>
-  <si>
-    <t>Rezoning</t>
-  </si>
-  <si>
-    <t>Tendering</t>
-  </si>
-  <si>
-    <t>Development permit drawings</t>
-  </si>
-  <si>
-    <t>Extra Services beyond contract - SEE EXTRA SERVICES FORM</t>
-  </si>
-  <si>
-    <t>Building permit drawings</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>Maplewood</t>
-  </si>
-  <si>
-    <t>Two Waters Parcels 1&amp;2</t>
-  </si>
-  <si>
-    <t>WORKING FROM HOME</t>
-  </si>
-  <si>
-    <t>HAPPY HOUR</t>
-  </si>
-  <si>
-    <t>VV</t>
-  </si>
-  <si>
-    <t>September 2024</t>
   </si>
 </sst>
 </file>
@@ -1284,7 +1297,7 @@
   <dimension ref="A1:GH87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AD10" sqref="AD10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1469,7 +1482,7 @@
       </c>
       <c r="P3" s="4"/>
       <c r="Q3" s="77" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R3" s="49"/>
       <c r="S3" s="49"/>
@@ -1492,7 +1505,7 @@
       <c r="AH3" s="4"/>
       <c r="AI3" s="32"/>
       <c r="AJ3" s="75" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK3" s="30"/>
       <c r="AL3" s="30"/>
@@ -2213,10 +2226,10 @@
         <v>78</v>
       </c>
       <c r="B8" s="59" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" s="79" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="D8" s="59" t="s">
         <v>20</v>
@@ -2446,10 +2459,10 @@
     </row>
     <row r="10" spans="1:190" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C10" s="79" t="s">
         <v>27</v>
@@ -4398,7 +4411,7 @@
         <v>0</v>
       </c>
       <c r="AJ23" s="51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK23" s="30"/>
       <c r="AL23" s="30"/>
@@ -5445,7 +5458,7 @@
     </row>
     <row r="33" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -5649,16 +5662,16 @@
     </row>
     <row r="36" spans="1:69" s="30" customFormat="1" ht="10.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="17" t="s">
         <v>82</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>83</v>
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="65"/>
       <c r="E36" s="65"/>
       <c r="F36" s="65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G36" s="65"/>
       <c r="H36" s="65" t="s">
@@ -5716,7 +5729,7 @@
       </c>
       <c r="G37" s="65"/>
       <c r="H37" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I37" s="65"/>
       <c r="J37" s="65"/>
@@ -5746,16 +5759,16 @@
       <c r="AI37" s="65"/>
       <c r="AJ37" s="31"/>
       <c r="AN37" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AZ37" s="55"/>
     </row>
     <row r="38" spans="1:69" s="30" customFormat="1" ht="10" x14ac:dyDescent="0.2">
       <c r="A38" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="17" t="s">
         <v>86</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>87</v>
       </c>
       <c r="C38" s="17"/>
       <c r="D38" s="65"/>
@@ -5765,7 +5778,7 @@
       </c>
       <c r="G38" s="65"/>
       <c r="H38" s="65" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I38" s="65"/>
       <c r="J38" s="65"/>
@@ -5808,7 +5821,7 @@
         <v>23</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C39" s="31"/>
       <c r="D39" s="67"/>
@@ -5818,7 +5831,7 @@
       </c>
       <c r="G39" s="67"/>
       <c r="H39" s="67" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I39" s="67"/>
       <c r="J39" s="67"/>
@@ -5853,13 +5866,13 @@
         <v>27</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C40" s="31"/>
       <c r="D40" s="67"/>
       <c r="E40" s="67"/>
       <c r="F40" s="67" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G40" s="67"/>
       <c r="H40" s="67" t="s">
